--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormPB.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormPB.xlsx
@@ -835,6 +835,177 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +1028,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,204 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D21:M23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1388,91 +1388,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="79"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="1:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="82"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1482,13 +1482,13 @@
         <v>2</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -1534,519 +1534,521 @@
       <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:40" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="86" t="s">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="89"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="19"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="90"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="90"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="21"/>
     </row>
     <row r="8" spans="1:40" s="7" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35">
         <f>S8-X8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="47"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="36"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35">
         <f t="shared" ref="AC9:AC12" si="0">S9-X9</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="47"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="36"/>
     </row>
     <row r="10" spans="1:40" s="7" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="47"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="36"/>
     </row>
     <row r="11" spans="1:40" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="47"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="36"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="47"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36"/>
     </row>
     <row r="13" spans="1:40" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50">
-        <v>2</v>
-      </c>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="55">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53">
+        <f>ROUNDUP(SUM(S8:W12),2)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55">
+        <f>ROUNDUP(SUM(X8:AB12),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58">
         <f>ROUNDUP(SUM(AC8:AG12),2)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
     </row>
     <row r="14" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="60"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="44"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="62"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="46"/>
     </row>
     <row r="16" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="40" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="40" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="40" t="s">
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="42"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="68"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="43" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="43" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="43" t="s">
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="45"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="71"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
@@ -2151,115 +2153,115 @@
       <c r="AG20" s="13"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="24"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="90"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="27"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="93"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="17"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="74"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
@@ -2289,14 +2291,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="21" t="s">
+      <c r="AB24" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
@@ -2305,34 +2307,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:W7"/>
-    <mergeCell ref="X5:AB7"/>
-    <mergeCell ref="AC5:AG7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:K7"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="O6:R7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="X23:AG23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="X21:AG21"/>
+    <mergeCell ref="X22:AG22"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="X16:AG16"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="X17:AG17"/>
+    <mergeCell ref="A14:AG15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
     <mergeCell ref="AC10:AG10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:K11"/>
@@ -2347,38 +2353,34 @@
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="S10:W10"/>
     <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A14:AG15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="X16:AG16"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="X17:AG17"/>
-    <mergeCell ref="X23:AG23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="N21:W21"/>
-    <mergeCell ref="N22:W22"/>
-    <mergeCell ref="N23:W23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="X21:AG21"/>
-    <mergeCell ref="X22:AG22"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:W7"/>
+    <mergeCell ref="X5:AB7"/>
+    <mergeCell ref="AC5:AG7"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:K7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="O6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
